--- a/tables/TableS1&4_stock_selection.xlsx
+++ b/tables/TableS1&4_stock_selection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33CBCCF9-B214-1346-9A54-EC96617CC3AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2FF263C-9EBF-8842-95E3-26050FCD05E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="700" windowWidth="25440" windowHeight="15000" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
+    <workbookView xWindow="26740" yWindow="1120" windowWidth="25440" windowHeight="15000" activeTab="2" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prey stock selection" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Criteria</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Populations of predator species</t>
   </si>
   <si>
-    <t>Populations in four study regions</t>
-  </si>
-  <si>
     <t>Populations with TB and catch in metric tons</t>
   </si>
   <si>
@@ -80,15 +77,6 @@
     <t># of populations</t>
   </si>
   <si>
-    <t>Populations with ≥20 years of data</t>
-  </si>
-  <si>
-    <t>Populations with ≥20 years of data after merging</t>
-  </si>
-  <si>
-    <t>Two population removed b/c wild dynamics</t>
-  </si>
-  <si>
     <t>San Diego Bay Elegant tern, CA sea lion Southern SCB</t>
   </si>
   <si>
@@ -98,7 +86,25 @@
     <t>Populations with ≥20 years of TB or SSB data</t>
   </si>
   <si>
-    <t>Plus four populations not in the RAMLDB</t>
+    <t>SA4/SA7 sandeels, US-WC Northern anchovy, US-EC Northern shortfin squid, NAFO3-4 Atlanic mackerel</t>
+  </si>
+  <si>
+    <t>Populations with ≥15 years of data</t>
+  </si>
+  <si>
+    <t>Removed 3 highly correlatted Pervian bird populations</t>
+  </si>
+  <si>
+    <t>Removed 2 population w/ wild dynamics</t>
+  </si>
+  <si>
+    <t>Populations in 4 study regions</t>
+  </si>
+  <si>
+    <t>Plus 5 populations not in the RAMLDB</t>
+  </si>
+  <si>
+    <t>Populations with ≥15 years of data after merging</t>
   </si>
 </sst>
 </file>
@@ -481,15 +487,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2D7E20-AD63-4A44-94FC-6D39DABC98C7}">
   <dimension ref="A2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -497,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -513,7 +519,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>63</v>
@@ -521,7 +527,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>54</v>
@@ -529,7 +535,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>42</v>
@@ -540,18 +546,21 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -573,7 +582,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,12 +596,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1252</v>
@@ -608,7 +617,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>124</v>
@@ -616,7 +625,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>77</v>
@@ -624,7 +633,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>72</v>
@@ -632,7 +641,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>65</v>
@@ -640,7 +649,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>37</v>
@@ -648,7 +657,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>33</v>
@@ -656,7 +665,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>23</v>
@@ -674,15 +683,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E95CBC-6C6F-0343-9187-DD99D750F6A5}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -700,10 +709,10 @@
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -711,45 +720,51 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/tables/TableS1&4_stock_selection.xlsx
+++ b/tables/TableS1&4_stock_selection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E2FF263C-9EBF-8842-95E3-26050FCD05E9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390228A-B878-7447-8BA2-47468E1BB558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26740" yWindow="1120" windowWidth="25440" windowHeight="15000" activeTab="2" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
+    <workbookView xWindow="2560" yWindow="1000" windowWidth="23040" windowHeight="15000" activeTab="2" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
   </bookViews>
   <sheets>
     <sheet name="Prey stock selection" sheetId="1" r:id="rId1"/>
@@ -582,7 +582,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,7 +620,7 @@
         <v>23</v>
       </c>
       <c r="B5">
-        <v>124</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,7 +636,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -660,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -668,7 +668,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,7 +762,9 @@
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>18</v>
+      </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>

--- a/tables/TableS1&4_stock_selection.xlsx
+++ b/tables/TableS1&4_stock_selection.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/Rutgers/projects/forage_fish/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1390228A-B878-7447-8BA2-47468E1BB558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390943D9-2A48-8F44-A188-B8BECAAC14C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="1000" windowWidth="23040" windowHeight="15000" activeTab="2" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
+    <workbookView xWindow="2560" yWindow="1000" windowWidth="23040" windowHeight="15000" xr2:uid="{0AE76B40-AA2F-1B4E-B4AD-5ADE4AE9F06F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prey stock selection" sheetId="1" r:id="rId1"/>
-    <sheet name="Predator stock selection" sheetId="2" r:id="rId2"/>
-    <sheet name="Non-fish predator" sheetId="3" r:id="rId3"/>
+    <sheet name="All" sheetId="1" r:id="rId1"/>
+    <sheet name="Prey" sheetId="4" r:id="rId2"/>
+    <sheet name="Predator stock selection" sheetId="2" r:id="rId3"/>
+    <sheet name="Non-fish predator" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="29">
   <si>
     <t>Criteria</t>
   </si>
@@ -44,9 +45,6 @@
     <t>TB = total biomass</t>
   </si>
   <si>
-    <t>TB = total biomass; SSB = spawning stock biomass</t>
-  </si>
-  <si>
     <t>All RAM Legacy Populations</t>
   </si>
   <si>
@@ -105,13 +103,25 @@
   </si>
   <si>
     <t>Populations with ≥15 years of data after merging</t>
+  </si>
+  <si>
+    <t>Fish predator populations</t>
+  </si>
+  <si>
+    <t>Prey populations</t>
+  </si>
+  <si>
+    <t>Bird/mammal predator populations</t>
+  </si>
+  <si>
+    <t>* TB = total biomass; SSB = spawning stock biomass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +131,14 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -170,6 +188,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,90 +508,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2D7E20-AD63-4A44-94FC-6D39DABC98C7}">
-  <dimension ref="A2:C10"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="A2:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1252</v>
-      </c>
+    <row r="3" spans="1:3" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B7">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B8">
         <v>47</v>
       </c>
       <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>5</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="3">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -578,11 +752,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B453D3C5-7081-FC45-8814-864FA5D51AF0}">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6074596-BC0E-E94E-877D-2B8E0C5F1851}">
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,12 +858,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>1252</v>
@@ -609,7 +871,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>171</v>
@@ -617,7 +879,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>147</v>
@@ -625,7 +887,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>93</v>
@@ -633,7 +895,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>88</v>
@@ -641,7 +903,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>73</v>
@@ -649,7 +911,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>45</v>
@@ -657,7 +919,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>38</v>
@@ -665,7 +927,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -681,12 +943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E95CBC-6C6F-0343-9187-DD99D750F6A5}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -709,7 +971,7 @@
     </row>
     <row r="3" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>37</v>
@@ -720,7 +982,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>34</v>
@@ -728,7 +990,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>33</v>
@@ -736,7 +998,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>29</v>
@@ -744,7 +1006,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>23</v>
@@ -752,7 +1014,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
@@ -760,13 +1022,13 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
